--- a/3. 요구사항 정의서_분석서/1조_요구사항 명세서_V0.1.xlsx
+++ b/3. 요구사항 정의서_분석서/1조_요구사항 명세서_V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IPAD 서류정리\요구사항명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\카카오톡 받은 파일\IPAD 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">웹 페이지 왼쪽 상단 클릭 시, 첫 화면으로 이동할 수 있는 로고를 삽입 </t>
-  </si>
-  <si>
-    <t>RQ-ID-000-03</t>
-  </si>
-  <si>
-    <t>게시판</t>
-  </si>
-  <si>
-    <t>(진행중)</t>
   </si>
   <si>
     <t>RQ-ID-000-04</t>
@@ -1321,6 +1312,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,16 +1333,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,10 +1560,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L1023"/>
+  <dimension ref="A1:L1022"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1594,12 +1585,12 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
-      <c r="B2" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
@@ -1621,7 +1612,7 @@
       <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -1636,7 +1627,7 @@
       <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
@@ -1649,7 +1640,7 @@
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1657,51 +1648,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="24" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1710,7 +1701,7 @@
       <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1714,7 @@
       <c r="B11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
@@ -1736,7 +1727,7 @@
       <c r="B12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
@@ -1744,44 +1735,44 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1790,7 +1781,7 @@
       <c r="B16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="17" t="s">
         <v>44</v>
       </c>
@@ -1803,7 +1794,7 @@
       <c r="B17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="17" t="s">
         <v>47</v>
       </c>
@@ -1816,7 +1807,7 @@
       <c r="B18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
@@ -1829,7 +1820,7 @@
       <c r="B19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="17" t="s">
         <v>53</v>
       </c>
@@ -1837,30 +1828,39 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>60</v>
+      <c r="C21" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>139</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1870,19 +1870,17 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>142</v>
+      <c r="B22" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>140</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1895,14 +1893,14 @@
     <row r="23" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="51"/>
+        <v>128</v>
+      </c>
+      <c r="C23" s="52"/>
       <c r="D23" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1915,34 +1913,31 @@
     <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="51"/>
+        <v>129</v>
+      </c>
+      <c r="C24" s="52"/>
       <c r="D24" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="51"/>
+        <v>130</v>
+      </c>
+      <c r="C25" s="52"/>
       <c r="D25" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1952,93 +1947,96 @@
     <row r="26" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="51"/>
+        <v>131</v>
+      </c>
+      <c r="C26" s="52"/>
       <c r="D26" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>147</v>
+      <c r="B27" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="58" t="s">
+      <c r="B29" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="E29" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="35" t="s">
+    </row>
+    <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="17" t="s">
+      <c r="E30" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="51"/>
+        <v>147</v>
+      </c>
+      <c r="C31" s="52"/>
       <c r="D31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>68</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -2049,126 +2047,119 @@
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="31" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="17" t="s">
+      <c r="E33" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="27" t="s">
+      <c r="B34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="D34" s="26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="51" t="s">
+      <c r="B35" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="E35" s="38" t="s">
         <v>77</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="52"/>
+      <c r="D39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="51"/>
+        <v>156</v>
+      </c>
+      <c r="C40" s="52"/>
       <c r="D40" s="14" t="s">
         <v>88</v>
       </c>
@@ -2176,209 +2167,197 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="31" t="s">
+      <c r="B41" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="25" t="s">
+      <c r="B42" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="D42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>99</v>
+      <c r="E43" s="31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="51"/>
+        <v>158</v>
+      </c>
+      <c r="C44" s="52"/>
       <c r="D44" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="51"/>
+        <v>159</v>
+      </c>
+      <c r="C45" s="52"/>
       <c r="D45" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="31" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>106</v>
+      <c r="B48" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="C49" s="52"/>
       <c r="D49" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="34" t="s">
+      <c r="C52" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="48" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="45" t="s">
+      <c r="E54" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="43"/>
-    </row>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="43"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3345,20 +3324,19 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C52:C54"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C21:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
